--- a/ENGL/ENGL.xlsx
+++ b/ENGL/ENGL.xlsx
@@ -3579,7 +3579,7 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K35" t="n">
         <v>30</v>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O35" t="inlineStr"/>
@@ -3629,7 +3629,7 @@
         </is>
       </c>
       <c r="V35" t="n">
-        <v>3.733333333333333</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="36">
@@ -3751,7 +3751,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K37" t="n">
         <v>30</v>
@@ -3768,17 +3768,13 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Contact Instructor</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -3805,7 +3801,7 @@
         </is>
       </c>
       <c r="V37" t="n">
-        <v>2.4</v>
+        <v>2.266666666666667</v>
       </c>
     </row>
     <row r="38">
@@ -3927,7 +3923,7 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K39" t="n">
         <v>30</v>
@@ -3944,7 +3940,7 @@
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -3977,7 +3973,7 @@
         </is>
       </c>
       <c r="V39" t="n">
-        <v>3.333333333333333</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="40">
@@ -4721,7 +4717,7 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K48" t="n">
         <v>30</v>
@@ -4738,7 +4734,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -4771,7 +4767,7 @@
         </is>
       </c>
       <c r="V48" t="n">
-        <v>2.933333333333333</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="49">
@@ -5077,7 +5073,7 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K52" t="n">
         <v>30</v>
@@ -5094,7 +5090,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -5127,7 +5123,7 @@
         </is>
       </c>
       <c r="V52" t="n">
-        <v>3.2</v>
+        <v>3.066666666666666</v>
       </c>
     </row>
     <row r="53">
@@ -5433,7 +5429,7 @@
         </is>
       </c>
       <c r="J56" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K56" t="n">
         <v>30</v>
@@ -5450,7 +5446,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5487,7 +5483,7 @@
         </is>
       </c>
       <c r="V56" t="n">
-        <v>4</v>
+        <v>3.866666666666667</v>
       </c>
     </row>
     <row r="57">
@@ -5977,7 +5973,7 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K62" t="n">
         <v>30</v>
@@ -5994,7 +5990,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -6027,7 +6023,7 @@
         </is>
       </c>
       <c r="V62" t="n">
-        <v>2.266666666666667</v>
+        <v>2.533333333333333</v>
       </c>
     </row>
     <row r="63">
@@ -6153,7 +6149,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K64" t="n">
         <v>30</v>
@@ -6170,7 +6166,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -6203,7 +6199,7 @@
         </is>
       </c>
       <c r="V64" t="n">
-        <v>1.466666666666667</v>
+        <v>1.733333333333333</v>
       </c>
     </row>
     <row r="65">
@@ -6239,7 +6235,7 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K65" t="n">
         <v>30</v>
@@ -6256,7 +6252,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -6289,7 +6285,7 @@
         </is>
       </c>
       <c r="V65" t="n">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="66">
@@ -6963,7 +6959,7 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K73" t="n">
         <v>25</v>
@@ -6980,7 +6976,7 @@
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -7013,7 +7009,7 @@
         </is>
       </c>
       <c r="V73" t="n">
-        <v>2.4</v>
+        <v>2.133333333333333</v>
       </c>
     </row>
     <row r="74">
@@ -7413,7 +7409,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K78" t="n">
         <v>25</v>
@@ -7430,7 +7426,7 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O78" t="inlineStr"/>
@@ -7463,7 +7459,7 @@
         </is>
       </c>
       <c r="V78" t="n">
-        <v>2.4</v>
+        <v>2.266666666666667</v>
       </c>
     </row>
     <row r="79">
@@ -11343,7 +11339,7 @@
         </is>
       </c>
       <c r="J121" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K121" t="n">
         <v>25</v>
@@ -11360,17 +11356,13 @@
       </c>
       <c r="N121" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O121" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="O121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
-          <t>Wait List</t>
+          <t>Contact Instructor</t>
         </is>
       </c>
       <c r="Q121" t="inlineStr">
@@ -11397,7 +11389,7 @@
         </is>
       </c>
       <c r="V121" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="122">
@@ -11989,7 +11981,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K128" t="n">
         <v>25</v>
@@ -12006,7 +11998,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="O128" t="inlineStr"/>
@@ -12039,7 +12031,7 @@
         </is>
       </c>
       <c r="V128" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="129">

--- a/ENGL/ENGL.xlsx
+++ b/ENGL/ENGL.xlsx
@@ -557,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K2" t="n">
         <v>35</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O2" t="inlineStr"/>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="W2" t="n">
         <v>3.5</v>
@@ -659,12 +659,12 @@
         <v>0.2</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K3" t="n">
         <v>30</v>
@@ -724,13 +724,17 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -753,7 +757,7 @@
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>3.733333333333333</v>
+        <v>4</v>
       </c>
       <c r="W3" t="n">
         <v>4</v>
@@ -762,12 +766,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -810,7 +814,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K4" t="n">
         <v>30</v>
@@ -827,7 +831,7 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="O4" t="inlineStr"/>
@@ -856,7 +860,7 @@
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>1.866666666666667</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="W4" t="n">
         <v>4</v>
@@ -865,12 +869,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -920,7 +924,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -935,7 +939,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -977,7 +981,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1020,7 +1024,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K6" t="n">
         <v>30</v>
@@ -1037,7 +1041,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O6" t="inlineStr"/>
@@ -1066,7 +1070,7 @@
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>2.133333333333333</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="W6" t="n">
         <v>4</v>
@@ -1075,12 +1079,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1123,7 +1127,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="K7" t="n">
         <v>30</v>
@@ -1140,7 +1144,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O7" t="inlineStr"/>
@@ -1169,7 +1173,7 @@
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>2.4</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="W7" t="n">
         <v>4</v>
@@ -1178,12 +1182,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1290,7 +1294,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1333,7 +1337,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K9" t="n">
         <v>30</v>
@@ -1350,7 +1354,7 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -1383,7 +1387,7 @@
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.933333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W9" t="n">
         <v>4</v>
@@ -1392,12 +1396,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1440,7 +1444,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="K10" t="n">
         <v>30</v>
@@ -1457,7 +1461,7 @@
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -1486,7 +1490,7 @@
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="n">
-        <v>1.6</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="W10" t="n">
         <v>4</v>
@@ -1495,12 +1499,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1599,7 +1603,7 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1649,7 +1653,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1664,7 +1668,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>20</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1706,7 +1710,7 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1749,7 +1753,7 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="K13" t="n">
         <v>30</v>
@@ -1766,7 +1770,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -1795,7 +1799,7 @@
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="n">
-        <v>1.333333333333333</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="W13" t="n">
         <v>4</v>
@@ -1804,12 +1808,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1852,7 +1856,7 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>30</v>
@@ -1869,7 +1873,7 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1902,7 +1906,7 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W14" t="n">
         <v>4</v>
@@ -1911,12 +1915,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1959,7 +1963,7 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="K15" t="n">
         <v>30</v>
@@ -1976,7 +1980,7 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -2005,7 +2009,7 @@
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="W15" t="n">
         <v>4</v>
@@ -2014,12 +2018,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y15" t="n">
-        <v>7.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2062,7 +2066,7 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K16" t="n">
         <v>30</v>
@@ -2079,7 +2083,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2108,7 +2112,7 @@
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="W16" t="n">
         <v>4</v>
@@ -2117,12 +2121,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2165,7 +2169,7 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K17" t="n">
         <v>30</v>
@@ -2182,7 +2186,7 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O17" t="inlineStr"/>
@@ -2211,7 +2215,7 @@
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>2.533333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W17" t="n">
         <v>4</v>
@@ -2220,12 +2224,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -2268,7 +2272,7 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="K18" t="n">
         <v>30</v>
@@ -2285,7 +2289,7 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr"/>
@@ -2314,7 +2318,7 @@
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="n">
-        <v>2.933333333333333</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="W18" t="n">
         <v>4</v>
@@ -2323,12 +2327,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -2359,7 +2363,7 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19" t="n">
         <v>30</v>
@@ -2376,7 +2380,7 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -2413,7 +2417,7 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>3.866666666666667</v>
+        <v>3.733333333333333</v>
       </c>
       <c r="W19" t="n">
         <v>4</v>
@@ -2422,12 +2426,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y19" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -2470,7 +2474,7 @@
         </is>
       </c>
       <c r="J20" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K20" t="n">
         <v>30</v>
@@ -2487,7 +2491,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>12</t>
         </is>
       </c>
       <c r="O20" t="inlineStr"/>
@@ -2516,7 +2520,7 @@
       </c>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="n">
-        <v>1.733333333333333</v>
+        <v>2.4</v>
       </c>
       <c r="W20" t="n">
         <v>4</v>
@@ -2525,12 +2529,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -2573,7 +2577,7 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
         <v>30</v>
@@ -2590,7 +2594,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O21" t="inlineStr"/>
@@ -2623,7 +2627,7 @@
         </is>
       </c>
       <c r="V21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W21" t="n">
         <v>4</v>
@@ -2632,12 +2636,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y21" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -2668,7 +2672,7 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" t="n">
         <v>30</v>
@@ -2685,7 +2689,7 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2722,7 +2726,7 @@
         </is>
       </c>
       <c r="V22" t="n">
-        <v>4</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="W22" t="n">
         <v>4</v>
@@ -2731,12 +2735,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y22" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -2767,7 +2771,7 @@
         </is>
       </c>
       <c r="J23" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K23" t="n">
         <v>30</v>
@@ -2784,13 +2788,17 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
@@ -2817,7 +2825,7 @@
         </is>
       </c>
       <c r="V23" t="n">
-        <v>2.933333333333333</v>
+        <v>4</v>
       </c>
       <c r="W23" t="n">
         <v>4</v>
@@ -2826,12 +2834,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y23" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -2862,7 +2870,7 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
         <v>30</v>
@@ -2879,7 +2887,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -2912,7 +2920,7 @@
         </is>
       </c>
       <c r="V24" t="n">
-        <v>2.666666666666667</v>
+        <v>3.6</v>
       </c>
       <c r="W24" t="n">
         <v>4</v>
@@ -2921,12 +2929,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
@@ -2957,7 +2965,7 @@
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>30</v>
@@ -2974,7 +2982,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>26</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -3007,7 +3015,7 @@
         </is>
       </c>
       <c r="V25" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W25" t="n">
         <v>4</v>
@@ -3016,12 +3024,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -3059,7 +3067,7 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -3074,7 +3082,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3120,7 +3128,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -3151,7 +3159,7 @@
         </is>
       </c>
       <c r="J27" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="K27" t="n">
         <v>30</v>
@@ -3168,7 +3176,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -3201,7 +3209,7 @@
         </is>
       </c>
       <c r="V27" t="n">
-        <v>2.8</v>
+        <v>3.866666666666667</v>
       </c>
       <c r="W27" t="n">
         <v>4</v>
@@ -3210,12 +3218,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -3246,7 +3254,7 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="K28" t="n">
         <v>30</v>
@@ -3263,7 +3271,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>5</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -3296,7 +3304,7 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>1.733333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W28" t="n">
         <v>4</v>
@@ -3305,12 +3313,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y28" t="n">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -3417,7 +3425,7 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -3524,7 +3532,7 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
@@ -3631,7 +3639,7 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -3738,7 +3746,7 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -3845,7 +3853,7 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
@@ -3952,7 +3960,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -4059,7 +4067,7 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
@@ -4162,7 +4170,7 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
@@ -4205,7 +4213,7 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
         <v>20</v>
@@ -4222,7 +4230,7 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4255,7 +4263,7 @@
         </is>
       </c>
       <c r="V37" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="W37" t="n">
         <v>2.666666666666667</v>
@@ -4264,12 +4272,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y37" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
@@ -4376,7 +4384,7 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
@@ -4483,7 +4491,7 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
@@ -4521,7 +4529,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -4536,7 +4544,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -4582,7 +4590,7 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
@@ -4685,7 +4693,7 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -4716,7 +4724,7 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K42" t="n">
         <v>30</v>
@@ -4733,7 +4741,7 @@
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -4766,7 +4774,7 @@
         </is>
       </c>
       <c r="V42" t="n">
-        <v>1.066666666666667</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="W42" t="n">
         <v>4</v>
@@ -4775,12 +4783,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y42" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -4875,7 +4883,7 @@
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
@@ -4906,7 +4914,7 @@
         </is>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" t="n">
         <v>30</v>
@@ -4923,7 +4931,7 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -4956,7 +4964,7 @@
         </is>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="W44" t="n">
         <v>4</v>
@@ -4965,12 +4973,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
@@ -5001,7 +5009,7 @@
         </is>
       </c>
       <c r="J45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
         <v>30</v>
@@ -5018,7 +5026,7 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>27</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -5051,7 +5059,7 @@
         </is>
       </c>
       <c r="V45" t="n">
-        <v>0.2666666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="W45" t="n">
         <v>4</v>
@@ -5060,12 +5068,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y45" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -5108,7 +5116,7 @@
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K46" t="n">
         <v>30</v>
@@ -5125,7 +5133,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -5154,7 +5162,7 @@
       </c>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W46" t="n">
         <v>4</v>
@@ -5163,12 +5171,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y46" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
@@ -5271,7 +5279,7 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -5374,7 +5382,7 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -5477,7 +5485,7 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -5508,7 +5516,7 @@
         </is>
       </c>
       <c r="J50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
         <v>30</v>
@@ -5525,7 +5533,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>25</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -5558,7 +5566,7 @@
         </is>
       </c>
       <c r="V50" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="W50" t="n">
         <v>4</v>
@@ -5567,12 +5575,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y50" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -5675,7 +5683,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5770,7 +5778,7 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -5865,7 +5873,7 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -5960,7 +5968,7 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
@@ -6055,7 +6063,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -6150,7 +6158,7 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
@@ -6253,7 +6261,7 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
@@ -6352,7 +6360,7 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -6383,7 +6391,7 @@
         </is>
       </c>
       <c r="J59" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K59" t="n">
         <v>30</v>
@@ -6400,7 +6408,7 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -6433,7 +6441,7 @@
         </is>
       </c>
       <c r="V59" t="n">
-        <v>1.066666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W59" t="n">
         <v>4</v>
@@ -6442,12 +6450,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
@@ -6542,7 +6550,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -6645,7 +6653,7 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
@@ -6748,7 +6756,7 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
@@ -6791,7 +6799,7 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K63" t="n">
         <v>25</v>
@@ -6808,13 +6816,17 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -6841,7 +6853,7 @@
         </is>
       </c>
       <c r="V63" t="n">
-        <v>2.8</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W63" t="n">
         <v>3.333333333333333</v>
@@ -6850,12 +6862,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y63" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -6898,7 +6910,7 @@
         </is>
       </c>
       <c r="J64" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K64" t="n">
         <v>25</v>
@@ -6915,7 +6927,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -6948,7 +6960,7 @@
         </is>
       </c>
       <c r="V64" t="n">
-        <v>1.066666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W64" t="n">
         <v>3.333333333333333</v>
@@ -6957,12 +6969,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
@@ -7012,7 +7024,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -7027,7 +7039,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
@@ -7069,7 +7081,7 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -7112,7 +7124,7 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K66" t="n">
         <v>25</v>
@@ -7129,13 +7141,17 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
@@ -7158,7 +7174,7 @@
       </c>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="n">
-        <v>2.933333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W66" t="n">
         <v>3.333333333333333</v>
@@ -7167,12 +7183,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y66" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
@@ -7279,7 +7295,7 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
@@ -7310,7 +7326,7 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K68" t="n">
         <v>25</v>
@@ -7327,7 +7343,7 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -7360,7 +7376,7 @@
         </is>
       </c>
       <c r="V68" t="n">
-        <v>2.8</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="W68" t="n">
         <v>3.333333333333333</v>
@@ -7369,12 +7385,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y68" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -7412,7 +7428,7 @@
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
@@ -7427,7 +7443,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -7473,7 +7489,7 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
@@ -7504,7 +7520,7 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K70" t="n">
         <v>25</v>
@@ -7521,7 +7537,7 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -7554,7 +7570,7 @@
         </is>
       </c>
       <c r="V70" t="n">
-        <v>1.866666666666667</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="W70" t="n">
         <v>3.333333333333333</v>
@@ -7563,12 +7579,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y70" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -7663,7 +7679,7 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -7758,7 +7774,7 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -7853,7 +7869,7 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -7948,7 +7964,7 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -8043,7 +8059,7 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
@@ -8086,14 +8102,14 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K76" t="n">
         <v>35</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
@@ -8103,13 +8119,17 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -8136,7 +8156,7 @@
         </is>
       </c>
       <c r="V76" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W76" t="n">
         <v>3.5</v>
@@ -8145,12 +8165,12 @@
         <v>0.2</v>
       </c>
       <c r="Y76" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -8181,14 +8201,14 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K77" t="n">
         <v>35</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
@@ -8198,12 +8218,12 @@
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="P77" t="inlineStr">
@@ -8235,7 +8255,7 @@
         </is>
       </c>
       <c r="V77" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W77" t="n">
         <v>3.5</v>
@@ -8244,12 +8264,12 @@
         <v>0.2</v>
       </c>
       <c r="Y77" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -8280,7 +8300,7 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K78" t="n">
         <v>35</v>
@@ -8297,13 +8317,17 @@
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
@@ -8330,7 +8354,7 @@
         </is>
       </c>
       <c r="V78" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="W78" t="n">
         <v>3.5</v>
@@ -8339,12 +8363,12 @@
         <v>0.2</v>
       </c>
       <c r="Y78" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -8451,7 +8475,7 @@
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -8558,7 +8582,7 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -8665,7 +8689,7 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
@@ -8708,7 +8732,7 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K82" t="n">
         <v>25</v>
@@ -8725,13 +8749,17 @@
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O82" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
@@ -8758,7 +8786,7 @@
         </is>
       </c>
       <c r="V82" t="n">
-        <v>2.933333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W82" t="n">
         <v>3.333333333333333</v>
@@ -8767,12 +8795,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y82" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
@@ -8883,7 +8911,7 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
@@ -8994,7 +9022,7 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
@@ -9037,14 +9065,14 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K85" t="n">
         <v>25</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
@@ -9054,12 +9082,12 @@
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="P85" t="inlineStr">
@@ -9091,7 +9119,7 @@
         </is>
       </c>
       <c r="V85" t="n">
-        <v>3.333333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="W85" t="n">
         <v>3.333333333333333</v>
@@ -9100,12 +9128,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y85" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
@@ -9216,7 +9244,7 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
@@ -9327,7 +9355,7 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
@@ -9370,14 +9398,14 @@
         </is>
       </c>
       <c r="J88" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K88" t="n">
         <v>25</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
@@ -9387,13 +9415,17 @@
       </c>
       <c r="N88" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
@@ -9420,7 +9452,7 @@
         </is>
       </c>
       <c r="V88" t="n">
-        <v>2.933333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W88" t="n">
         <v>3.333333333333333</v>
@@ -9429,12 +9461,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y88" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
@@ -9541,7 +9573,7 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
@@ -9640,7 +9672,7 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
@@ -9683,7 +9715,7 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K91" t="n">
         <v>25</v>
@@ -9700,7 +9732,7 @@
       </c>
       <c r="N91" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="O91" t="inlineStr">
@@ -9733,7 +9765,7 @@
       </c>
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="n">
-        <v>3.2</v>
+        <v>3.066666666666666</v>
       </c>
       <c r="W91" t="n">
         <v>3.333333333333333</v>
@@ -9742,12 +9774,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y91" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
@@ -9854,7 +9886,7 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
@@ -9897,7 +9929,7 @@
         </is>
       </c>
       <c r="J93" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K93" t="n">
         <v>25</v>
@@ -9914,7 +9946,7 @@
       </c>
       <c r="N93" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>9</t>
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
@@ -9943,7 +9975,7 @@
       </c>
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="n">
-        <v>1.866666666666667</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="W93" t="n">
         <v>3.333333333333333</v>
@@ -9952,12 +9984,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y93" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
@@ -10056,7 +10088,7 @@
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
@@ -10159,7 +10191,7 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
@@ -10202,7 +10234,7 @@
         </is>
       </c>
       <c r="J96" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K96" t="n">
         <v>25</v>
@@ -10219,7 +10251,7 @@
       </c>
       <c r="N96" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O96" t="inlineStr"/>
@@ -10248,7 +10280,7 @@
       </c>
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="n">
-        <v>0.8</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="W96" t="n">
         <v>3.333333333333333</v>
@@ -10257,12 +10289,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
@@ -10361,7 +10393,7 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
@@ -10460,7 +10492,7 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
@@ -10559,7 +10591,7 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
@@ -10602,7 +10634,7 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="K100" t="n">
         <v>0</v>
@@ -10652,7 +10684,7 @@
         </is>
       </c>
       <c r="V100" t="n">
-        <v>2</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
@@ -10661,12 +10693,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y100" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
@@ -10765,7 +10797,7 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
@@ -10808,7 +10840,7 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K102" t="n">
         <v>0</v>
@@ -10858,7 +10890,7 @@
         </is>
       </c>
       <c r="V102" t="n">
-        <v>1.866666666666667</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
@@ -10867,12 +10899,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y102" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
@@ -10903,7 +10935,7 @@
         </is>
       </c>
       <c r="J103" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K103" t="n">
         <v>25</v>
@@ -10920,7 +10952,7 @@
       </c>
       <c r="N103" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="O103" t="inlineStr">
@@ -10957,7 +10989,7 @@
         </is>
       </c>
       <c r="V103" t="n">
-        <v>3.066666666666666</v>
+        <v>2.933333333333333</v>
       </c>
       <c r="W103" t="n">
         <v>3.333333333333333</v>
@@ -10966,12 +10998,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y103" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
@@ -11070,7 +11102,7 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
@@ -11169,7 +11201,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
@@ -11200,7 +11232,7 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K106" t="n">
         <v>25</v>
@@ -11217,7 +11249,7 @@
       </c>
       <c r="N106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O106" t="inlineStr">
@@ -11254,7 +11286,7 @@
         </is>
       </c>
       <c r="V106" t="n">
-        <v>3.333333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="W106" t="n">
         <v>3.333333333333333</v>
@@ -11263,12 +11295,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y106" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
@@ -11311,7 +11343,7 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K107" t="n">
         <v>25</v>
@@ -11328,7 +11360,7 @@
       </c>
       <c r="N107" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="O107" t="inlineStr"/>
@@ -11357,7 +11389,7 @@
       </c>
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="n">
-        <v>0.9333333333333333</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="W107" t="n">
         <v>3.333333333333333</v>
@@ -11366,12 +11398,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y107" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
@@ -11414,7 +11446,7 @@
         </is>
       </c>
       <c r="J108" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K108" t="n">
         <v>25</v>
@@ -11431,7 +11463,7 @@
       </c>
       <c r="N108" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="O108" t="inlineStr"/>
@@ -11460,7 +11492,7 @@
       </c>
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="n">
-        <v>1.066666666666667</v>
+        <v>1.2</v>
       </c>
       <c r="W108" t="n">
         <v>3.333333333333333</v>
@@ -11469,12 +11501,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y108" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
@@ -11517,7 +11549,7 @@
         </is>
       </c>
       <c r="J109" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K109" t="n">
         <v>25</v>
@@ -11534,7 +11566,7 @@
       </c>
       <c r="N109" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="O109" t="inlineStr"/>
@@ -11567,7 +11599,7 @@
         </is>
       </c>
       <c r="V109" t="n">
-        <v>0.4</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="W109" t="n">
         <v>3.333333333333333</v>
@@ -11576,12 +11608,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y109" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
@@ -11624,7 +11656,7 @@
         </is>
       </c>
       <c r="J110" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K110" t="n">
         <v>25</v>
@@ -11641,7 +11673,7 @@
       </c>
       <c r="N110" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O110" t="inlineStr"/>
@@ -11670,7 +11702,7 @@
       </c>
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="W110" t="n">
         <v>3.333333333333333</v>
@@ -11679,12 +11711,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y110" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
@@ -11722,7 +11754,7 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
@@ -11737,7 +11769,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="P111" t="inlineStr">
@@ -11783,7 +11815,7 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
@@ -11814,7 +11846,7 @@
         </is>
       </c>
       <c r="J112" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K112" t="n">
         <v>25</v>
@@ -11831,7 +11863,7 @@
       </c>
       <c r="N112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O112" t="inlineStr">
@@ -11868,7 +11900,7 @@
         </is>
       </c>
       <c r="V112" t="n">
-        <v>3.333333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="W112" t="n">
         <v>3.333333333333333</v>
@@ -11877,12 +11909,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y112" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
@@ -11925,7 +11957,7 @@
         </is>
       </c>
       <c r="J113" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K113" t="n">
         <v>25</v>
@@ -11942,7 +11974,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="O113" t="inlineStr"/>
@@ -11975,7 +12007,7 @@
         </is>
       </c>
       <c r="V113" t="n">
-        <v>1.866666666666667</v>
+        <v>2.266666666666667</v>
       </c>
       <c r="W113" t="n">
         <v>3.333333333333333</v>
@@ -11984,12 +12016,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y113" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
@@ -12032,7 +12064,7 @@
         </is>
       </c>
       <c r="J114" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K114" t="n">
         <v>25</v>
@@ -12049,7 +12081,7 @@
       </c>
       <c r="N114" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O114" t="inlineStr"/>
@@ -12082,7 +12114,7 @@
         </is>
       </c>
       <c r="V114" t="n">
-        <v>0.9333333333333333</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="W114" t="n">
         <v>3.333333333333333</v>
@@ -12091,12 +12123,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y114" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
@@ -12195,7 +12227,7 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
@@ -12294,7 +12326,7 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
@@ -12325,14 +12357,14 @@
         </is>
       </c>
       <c r="J117" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K117" t="n">
         <v>25</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
@@ -12342,12 +12374,12 @@
       </c>
       <c r="N117" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="P117" t="inlineStr">
@@ -12379,7 +12411,7 @@
         </is>
       </c>
       <c r="V117" t="n">
-        <v>3.333333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="W117" t="n">
         <v>3.333333333333333</v>
@@ -12388,12 +12420,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y117" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
@@ -12424,7 +12456,7 @@
         </is>
       </c>
       <c r="J118" t="n">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="K118" t="n">
         <v>25</v>
@@ -12441,7 +12473,7 @@
       </c>
       <c r="N118" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O118" t="inlineStr"/>
@@ -12474,7 +12506,7 @@
         </is>
       </c>
       <c r="V118" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="W118" t="n">
         <v>3.333333333333333</v>
@@ -12483,12 +12515,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y118" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
@@ -12519,7 +12551,7 @@
         </is>
       </c>
       <c r="J119" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K119" t="n">
         <v>25</v>
@@ -12536,7 +12568,7 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O119" t="inlineStr"/>
@@ -12569,7 +12601,7 @@
         </is>
       </c>
       <c r="V119" t="n">
-        <v>1.466666666666667</v>
+        <v>2.533333333333333</v>
       </c>
       <c r="W119" t="n">
         <v>3.333333333333333</v>
@@ -12578,12 +12610,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y119" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
@@ -12686,7 +12718,7 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
@@ -12793,7 +12825,7 @@
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
@@ -12831,7 +12863,7 @@
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
@@ -12846,7 +12878,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="P122" t="inlineStr">
@@ -12892,7 +12924,7 @@
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
@@ -12995,7 +13027,7 @@
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
@@ -13038,7 +13070,7 @@
         </is>
       </c>
       <c r="J124" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K124" t="n">
         <v>25</v>
@@ -13055,7 +13087,7 @@
       </c>
       <c r="N124" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O124" t="inlineStr"/>
@@ -13088,7 +13120,7 @@
         </is>
       </c>
       <c r="V124" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="W124" t="n">
         <v>3.333333333333333</v>
@@ -13097,12 +13129,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y124" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
@@ -13133,7 +13165,7 @@
         </is>
       </c>
       <c r="J125" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K125" t="n">
         <v>25</v>
@@ -13150,7 +13182,7 @@
       </c>
       <c r="N125" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="O125" t="inlineStr"/>
@@ -13183,7 +13215,7 @@
         </is>
       </c>
       <c r="V125" t="n">
-        <v>2.133333333333333</v>
+        <v>3.2</v>
       </c>
       <c r="W125" t="n">
         <v>3.333333333333333</v>
@@ -13192,12 +13224,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y125" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
@@ -13228,7 +13260,7 @@
         </is>
       </c>
       <c r="J126" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K126" t="n">
         <v>25</v>
@@ -13245,7 +13277,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O126" t="inlineStr"/>
@@ -13278,7 +13310,7 @@
         </is>
       </c>
       <c r="V126" t="n">
-        <v>0.8</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="W126" t="n">
         <v>3.333333333333333</v>
@@ -13287,12 +13319,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y126" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
@@ -13323,7 +13355,7 @@
         </is>
       </c>
       <c r="J127" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K127" t="n">
         <v>25</v>
@@ -13340,7 +13372,7 @@
       </c>
       <c r="N127" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="O127" t="inlineStr"/>
@@ -13373,7 +13405,7 @@
         </is>
       </c>
       <c r="V127" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="W127" t="n">
         <v>3.333333333333333</v>
@@ -13382,12 +13414,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y127" t="n">
-        <v>4.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
@@ -13418,7 +13450,7 @@
         </is>
       </c>
       <c r="J128" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K128" t="n">
         <v>35</v>
@@ -13435,7 +13467,7 @@
       </c>
       <c r="N128" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="O128" t="inlineStr"/>
@@ -13468,7 +13500,7 @@
         </is>
       </c>
       <c r="V128" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="W128" t="n">
         <v>3.5</v>
@@ -13477,12 +13509,12 @@
         <v>0.2</v>
       </c>
       <c r="Y128" t="n">
-        <v>5</v>
+        <v>6.000000000000001</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
@@ -13513,14 +13545,14 @@
         </is>
       </c>
       <c r="J129" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="K129" t="n">
         <v>25</v>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
@@ -13530,13 +13562,17 @@
       </c>
       <c r="N129" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="O129" t="inlineStr"/>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>Open</t>
+          <t>Wait List</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
@@ -13563,7 +13599,7 @@
         </is>
       </c>
       <c r="V129" t="n">
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="W129" t="n">
         <v>3.333333333333333</v>
@@ -13572,12 +13608,12 @@
         <v>0.2666666666666667</v>
       </c>
       <c r="Y129" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
@@ -13672,7 +13708,7 @@
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
@@ -13703,7 +13739,7 @@
         </is>
       </c>
       <c r="J131" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K131" t="n">
         <v>35</v>
@@ -13720,7 +13756,7 @@
       </c>
       <c r="N131" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="O131" t="inlineStr"/>
@@ -13753,7 +13789,7 @@
         </is>
       </c>
       <c r="V131" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W131" t="n">
         <v>3.5</v>
@@ -13762,12 +13798,12 @@
         <v>0.2</v>
       </c>
       <c r="Y131" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
@@ -13870,7 +13906,7 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
@@ -13901,7 +13937,7 @@
         </is>
       </c>
       <c r="J133" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K133" t="n">
         <v>25</v>
@@ -13918,7 +13954,7 @@
       </c>
       <c r="N133" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O133" t="inlineStr"/>
@@ -13951,7 +13987,7 @@
         </is>
       </c>
       <c r="V133" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="W133" t="n">
         <v>2.5</v>
@@ -13960,12 +13996,12 @@
         <v>0.2</v>
       </c>
       <c r="Y133" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
@@ -13996,7 +14032,7 @@
         </is>
       </c>
       <c r="J134" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K134" t="n">
         <v>25</v>
@@ -14013,7 +14049,7 @@
       </c>
       <c r="N134" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="O134" t="inlineStr"/>
@@ -14046,7 +14082,7 @@
         </is>
       </c>
       <c r="V134" t="n">
-        <v>0.6000000000000001</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="W134" t="n">
         <v>2.5</v>
@@ -14055,12 +14091,12 @@
         <v>0.2</v>
       </c>
       <c r="Y134" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
@@ -14091,7 +14127,7 @@
         </is>
       </c>
       <c r="J135" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K135" t="n">
         <v>35</v>
@@ -14108,7 +14144,7 @@
       </c>
       <c r="N135" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>6</t>
         </is>
       </c>
       <c r="O135" t="inlineStr"/>
@@ -14141,7 +14177,7 @@
         </is>
       </c>
       <c r="V135" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="W135" t="n">
         <v>3.5</v>
@@ -14150,12 +14186,12 @@
         <v>0.2</v>
       </c>
       <c r="Y135" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
@@ -14186,7 +14222,7 @@
         </is>
       </c>
       <c r="J136" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="K136" t="n">
         <v>35</v>
@@ -14203,7 +14239,7 @@
       </c>
       <c r="N136" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="O136" t="inlineStr"/>
@@ -14236,7 +14272,7 @@
         </is>
       </c>
       <c r="V136" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="W136" t="n">
         <v>3.5</v>
@@ -14245,12 +14281,12 @@
         <v>0.2</v>
       </c>
       <c r="Y136" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
@@ -14281,7 +14317,7 @@
         </is>
       </c>
       <c r="J137" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K137" t="n">
         <v>35</v>
@@ -14298,7 +14334,7 @@
       </c>
       <c r="N137" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O137" t="inlineStr"/>
@@ -14331,7 +14367,7 @@
         </is>
       </c>
       <c r="V137" t="n">
-        <v>0.5</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W137" t="n">
         <v>3.5</v>
@@ -14340,12 +14376,12 @@
         <v>0.2</v>
       </c>
       <c r="Y137" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
@@ -14374,7 +14410,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>1:10pm</t>
+          <t>12:30pm</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -14388,7 +14424,7 @@
         </is>
       </c>
       <c r="J138" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="K138" t="n">
         <v>25</v>
@@ -14405,7 +14441,7 @@
       </c>
       <c r="N138" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="O138" t="inlineStr"/>
@@ -14434,7 +14470,7 @@
       </c>
       <c r="U138" t="inlineStr"/>
       <c r="V138" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="W138" t="n">
         <v>2.5</v>
@@ -14443,12 +14479,12 @@
         <v>0.2</v>
       </c>
       <c r="Y138" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
@@ -14543,7 +14579,7 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
@@ -14574,7 +14610,7 @@
         </is>
       </c>
       <c r="J140" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K140" t="n">
         <v>35</v>
@@ -14591,7 +14627,7 @@
       </c>
       <c r="N140" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="O140" t="inlineStr"/>
@@ -14624,7 +14660,7 @@
         </is>
       </c>
       <c r="V140" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="W140" t="n">
         <v>3.5</v>
@@ -14633,12 +14669,12 @@
         <v>0.2</v>
       </c>
       <c r="Y140" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
@@ -14669,7 +14705,7 @@
         </is>
       </c>
       <c r="J141" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K141" t="n">
         <v>35</v>
@@ -14686,7 +14722,7 @@
       </c>
       <c r="N141" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O141" t="inlineStr"/>
@@ -14719,7 +14755,7 @@
         </is>
       </c>
       <c r="V141" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W141" t="n">
         <v>3.5</v>
@@ -14728,12 +14764,12 @@
         <v>0.2</v>
       </c>
       <c r="Y141" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
@@ -14764,7 +14800,7 @@
         </is>
       </c>
       <c r="J142" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K142" t="n">
         <v>25</v>
@@ -14781,7 +14817,7 @@
       </c>
       <c r="N142" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O142" t="inlineStr"/>
@@ -14814,7 +14850,7 @@
         </is>
       </c>
       <c r="V142" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="W142" t="n">
         <v>2.5</v>
@@ -14823,12 +14859,12 @@
         <v>0.2</v>
       </c>
       <c r="Y142" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
@@ -14923,7 +14959,7 @@
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
@@ -14954,7 +14990,7 @@
         </is>
       </c>
       <c r="J144" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K144" t="n">
         <v>25</v>
@@ -14971,7 +15007,7 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>14</t>
         </is>
       </c>
       <c r="O144" t="inlineStr"/>
@@ -15004,7 +15040,7 @@
         </is>
       </c>
       <c r="V144" t="n">
-        <v>0.7000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="W144" t="n">
         <v>2.5</v>
@@ -15013,7 +15049,7 @@
         <v>0.2</v>
       </c>
       <c r="Y144" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
